--- a/input/Quadratic2_Complete.xlsx
+++ b/input/Quadratic2_Complete.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -460,13 +460,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.08361412988681674</v>
+        <v>0.1426875065163276</v>
       </c>
       <c r="C2" t="n">
-        <v>1.258222097591991</v>
+        <v>1.09163566462907</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2128695742679799</v>
+        <v>0.1621774786541525</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         <v>0.2083333333333333</v>
       </c>
       <c r="B3" t="n">
-        <v>0.08310040860786949</v>
+        <v>0.06780569901143271</v>
       </c>
       <c r="C3" t="n">
-        <v>5.588120368541562</v>
+        <v>5.467029463578041</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2142972404120727</v>
+        <v>0.2460062864740273</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="B4" t="n">
-        <v>0.07625262169149004</v>
+        <v>0.09454485513604982</v>
       </c>
       <c r="C4" t="n">
-        <v>9.192466662518333</v>
+        <v>8.927750571830922</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1705037526542869</v>
+        <v>0.1187085183396777</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>0.625</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1124774876912603</v>
+        <v>0.1341618055095846</v>
       </c>
       <c r="C5" t="n">
-        <v>12.77157602087615</v>
+        <v>12.10800921252872</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2572088742073634</v>
+        <v>0.1240484889818186</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0965511449405156</v>
+        <v>0.09713028466478685</v>
       </c>
       <c r="C6" t="n">
-        <v>14.97351338423463</v>
+        <v>14.25127202409365</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1390826817568493</v>
+        <v>0.128325096430879</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>1.041666666666667</v>
       </c>
       <c r="B7" t="n">
-        <v>0.08047636660291198</v>
+        <v>0.08319026540728862</v>
       </c>
       <c r="C7" t="n">
-        <v>16.72101214674337</v>
+        <v>16.38686896093605</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1995371126707677</v>
+        <v>0.2352949081865892</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +544,13 @@
         <v>1.25</v>
       </c>
       <c r="B8" t="n">
-        <v>0.08200107774756865</v>
+        <v>0.1437298375993895</v>
       </c>
       <c r="C8" t="n">
-        <v>19.07593557566701</v>
+        <v>18.56989698139986</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1683207992901513</v>
+        <v>0.1377585931658061</v>
       </c>
     </row>
     <row r="9">
@@ -558,13 +558,13 @@
         <v>1.458333333333333</v>
       </c>
       <c r="B9" t="n">
-        <v>0.111488608305329</v>
+        <v>0.1436556778735269</v>
       </c>
       <c r="C9" t="n">
-        <v>20.2994333366171</v>
+        <v>20.24744671788237</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1570742256607517</v>
+        <v>0.1580391792726555</v>
       </c>
     </row>
     <row r="10">
@@ -572,13 +572,13 @@
         <v>1.666666666666667</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1229899296146402</v>
+        <v>0.1278563196084907</v>
       </c>
       <c r="C10" t="n">
-        <v>21.37110259521224</v>
+        <v>21.33210122606258</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1220124465266058</v>
+        <v>0.2539114923373028</v>
       </c>
     </row>
     <row r="11">
@@ -586,13 +586,13 @@
         <v>1.875</v>
       </c>
       <c r="B11" t="n">
-        <v>0.08348074251910736</v>
+        <v>0.0796381373571928</v>
       </c>
       <c r="C11" t="n">
-        <v>21.60601521545683</v>
+        <v>21.23520642445054</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2568652757555795</v>
+        <v>0.22040003565719</v>
       </c>
     </row>
     <row r="12">
@@ -600,13 +600,13 @@
         <v>2.083333333333333</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1476355250129985</v>
+        <v>0.08469928759339618</v>
       </c>
       <c r="C12" t="n">
-        <v>22.42351222118715</v>
+        <v>21.43165087645074</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1115580405010286</v>
+        <v>0.2067868352540644</v>
       </c>
     </row>
     <row r="13">
@@ -614,13 +614,13 @@
         <v>2.291666666666667</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1224165017877342</v>
+        <v>0.130587601614634</v>
       </c>
       <c r="C13" t="n">
-        <v>21.5591058988513</v>
+        <v>21.89252627870857</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2846982306398906</v>
+        <v>0.2861840985946398</v>
       </c>
     </row>
     <row r="14">
@@ -628,13 +628,13 @@
         <v>2.5</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1366631930813995</v>
+        <v>0.1246631449503537</v>
       </c>
       <c r="C14" t="n">
-        <v>20.66486070053988</v>
+        <v>21.27424046679059</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2424471897593325</v>
+        <v>0.2119706330389948</v>
       </c>
     </row>
     <row r="15">
@@ -642,13 +642,13 @@
         <v>2.708333333333333</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1198067992056745</v>
+        <v>0.1267055264446616</v>
       </c>
       <c r="C15" t="n">
-        <v>19.83733884795038</v>
+        <v>19.44357778612015</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1297491655121863</v>
+        <v>0.2664298416002698</v>
       </c>
     </row>
     <row r="16">
@@ -656,13 +656,13 @@
         <v>2.916666666666667</v>
       </c>
       <c r="B16" t="n">
-        <v>0.08401769519620139</v>
+        <v>0.09746172721490505</v>
       </c>
       <c r="C16" t="n">
-        <v>17.8474418005205</v>
+        <v>18.49109689988184</v>
       </c>
       <c r="D16" t="n">
-        <v>0.174037469680034</v>
+        <v>0.1919594135899338</v>
       </c>
     </row>
     <row r="17">
@@ -670,13 +670,13 @@
         <v>3.125</v>
       </c>
       <c r="B17" t="n">
-        <v>0.07413529172346105</v>
+        <v>0.09386597917387131</v>
       </c>
       <c r="C17" t="n">
-        <v>16.31756471696668</v>
+        <v>16.25194462883666</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1571485605135033</v>
+        <v>0.2617381314950782</v>
       </c>
     </row>
     <row r="18">
@@ -684,13 +684,13 @@
         <v>3.333333333333333</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0563916378414571</v>
+        <v>0.1207858929496632</v>
       </c>
       <c r="C18" t="n">
-        <v>13.15294364163002</v>
+        <v>13.73795313474392</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1896585042026496</v>
+        <v>0.1457683181667988</v>
       </c>
     </row>
     <row r="19">
@@ -698,13 +698,13 @@
         <v>3.541666666666667</v>
       </c>
       <c r="B19" t="n">
-        <v>0.06911438393047714</v>
+        <v>0.1333385376525511</v>
       </c>
       <c r="C19" t="n">
-        <v>10.9937686477865</v>
+        <v>11.35863696581246</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2610824154957436</v>
+        <v>0.2860747630596674</v>
       </c>
     </row>
     <row r="20">
@@ -712,13 +712,13 @@
         <v>3.75</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1058206811357636</v>
+        <v>0.08966144511699978</v>
       </c>
       <c r="C20" t="n">
-        <v>7.566188348190398</v>
+        <v>7.518375554057935</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1194679116699507</v>
+        <v>0.1147328330642163</v>
       </c>
     </row>
     <row r="21">
@@ -726,13 +726,13 @@
         <v>3.958333333333333</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1264299009410306</v>
+        <v>0.07301333228164658</v>
       </c>
       <c r="C21" t="n">
-        <v>4.206218555450779</v>
+        <v>3.783536648721564</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2875003189339771</v>
+        <v>0.2323711876133207</v>
       </c>
     </row>
     <row r="22">
@@ -740,13 +740,13 @@
         <v>4.166666666666667</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1212980107680356</v>
+        <v>0.09656121264505674</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.6111804321437324</v>
+        <v>-0.2987977553288744</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1703002804545217</v>
+        <v>0.2553141745934079</v>
       </c>
     </row>
     <row r="23">
@@ -754,13 +754,13 @@
         <v>4.375</v>
       </c>
       <c r="B23" t="n">
-        <v>0.08520718319583817</v>
+        <v>0.1221450509918528</v>
       </c>
       <c r="C23" t="n">
-        <v>-4.617852743572331</v>
+        <v>-4.702016228327486</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2571765194636874</v>
+        <v>0.1735526591591772</v>
       </c>
     </row>
     <row r="24">
@@ -768,13 +768,13 @@
         <v>4.583333333333334</v>
       </c>
       <c r="B24" t="n">
-        <v>0.07148772509232489</v>
+        <v>0.1455195460935777</v>
       </c>
       <c r="C24" t="n">
-        <v>-9.799258608909414</v>
+        <v>-10.08396686336512</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2435452233571285</v>
+        <v>0.2612427949436753</v>
       </c>
     </row>
     <row r="25">
@@ -782,13 +782,13 @@
         <v>4.791666666666667</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1329232330009173</v>
+        <v>0.1438335567502133</v>
       </c>
       <c r="C25" t="n">
-        <v>-15.20632557258857</v>
+        <v>-15.26967918809291</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2464320478927304</v>
+        <v>0.2546023436770116</v>
       </c>
     </row>
     <row r="26">
@@ -796,13 +796,13 @@
         <v>5</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1426832987001131</v>
+        <v>0.06139636678659802</v>
       </c>
       <c r="C26" t="n">
-        <v>-21.19537241850395</v>
+        <v>-20.87635839077612</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2273634507662409</v>
+        <v>0.1417412915639149</v>
       </c>
     </row>
   </sheetData>
